--- a/new_batch_incomplete.xlsx
+++ b/new_batch_incomplete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhuang\OneDrive - Sutro Biopharma\Documents 1\Python_Scripts\Batch_Evolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7060431A-11B0-4FE3-B05C-C864C9F3A126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585DBC7-0D5D-44B8-8DB7-1E1B5338BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="864" windowWidth="22896" windowHeight="12096" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
+    <workbookView xWindow="2850" yWindow="3210" windowWidth="28020" windowHeight="14520" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>glucose_g_L</t>
   </si>
   <si>
-    <t>mg_mM</t>
-  </si>
-  <si>
     <t>nh3_mM</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>S1_syn_018</t>
+  </si>
+  <si>
+    <t>magnesium_mM</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,18 +496,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>9</v>
